--- a/atomica_apps/optima_tb_databook.xlsx
+++ b/atomica_apps/optima_tb_databook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Infection susceptibility" sheetId="10" r:id="rId10"/>
     <sheet name="Untreated TB progression rates" sheetId="11" r:id="rId11"/>
     <sheet name="DALYs" sheetId="12" r:id="rId12"/>
-    <sheet name="Interactions" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Interactions" sheetId="13" r:id="rId13"/>
     <sheet name="Transfers" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -2939,7 +2939,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="381">
+  <dxfs count="333">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -5130,306 +5130,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FF98E0FA"/>
         </patternFill>
@@ -6835,6 +6535,18 @@
         <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9022,90 +8734,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="314" priority="11">
+    <cfRule type="expression" dxfId="264" priority="11">
       <formula>COUNTIF(F9:W9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="12">
+    <cfRule type="expression" dxfId="263" priority="12">
       <formula>AND(COUNTIF(F9:W9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="312" priority="13">
+    <cfRule type="expression" dxfId="262" priority="13">
       <formula>COUNTIF(F10:W10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="14">
+    <cfRule type="expression" dxfId="261" priority="14">
       <formula>AND(COUNTIF(F10:W10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="310" priority="15">
+    <cfRule type="expression" dxfId="260" priority="15">
       <formula>COUNTIF(F11:W11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="16">
+    <cfRule type="expression" dxfId="259" priority="16">
       <formula>AND(COUNTIF(F11:W11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="308" priority="17">
+    <cfRule type="expression" dxfId="258" priority="17">
       <formula>COUNTIF(F12:W12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="18">
+    <cfRule type="expression" dxfId="257" priority="18">
       <formula>AND(COUNTIF(F12:W12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="306" priority="19">
+    <cfRule type="expression" dxfId="256" priority="19">
       <formula>COUNTIF(F13:W13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="20">
+    <cfRule type="expression" dxfId="255" priority="20">
       <formula>AND(COUNTIF(F13:W13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="304" priority="1">
+    <cfRule type="expression" dxfId="254" priority="1">
       <formula>COUNTIF(F2:W2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="2">
+    <cfRule type="expression" dxfId="253" priority="2">
       <formula>AND(COUNTIF(F2:W2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="302" priority="3">
+    <cfRule type="expression" dxfId="252" priority="3">
       <formula>COUNTIF(F3:W3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="4">
+    <cfRule type="expression" dxfId="251" priority="4">
       <formula>AND(COUNTIF(F3:W3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="300" priority="5">
+    <cfRule type="expression" dxfId="250" priority="5">
       <formula>COUNTIF(F4:W4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="6">
+    <cfRule type="expression" dxfId="249" priority="6">
       <formula>AND(COUNTIF(F4:W4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="298" priority="7">
+    <cfRule type="expression" dxfId="248" priority="7">
       <formula>COUNTIF(F5:W5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="8">
+    <cfRule type="expression" dxfId="247" priority="8">
       <formula>AND(COUNTIF(F5:W5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="296" priority="9">
+    <cfRule type="expression" dxfId="246" priority="9">
       <formula>COUNTIF(F6:W6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="10">
+    <cfRule type="expression" dxfId="245" priority="10">
       <formula>AND(COUNTIF(F6:W6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20 D23:D27 D30:D34 D37:D41 D44:D48">
-    <cfRule type="expression" dxfId="294" priority="315">
+    <cfRule type="expression" dxfId="244" priority="315">
       <formula>COUNTIF(F16:X16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="316">
+    <cfRule type="expression" dxfId="243" priority="316">
       <formula>AND(COUNTIF(F16:X16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13566,10 +13278,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100:D104 D107:D111 D114:D118 D16:D20 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D58:D62 D65:D69 D72:D76 D79:D83 D9:D13 D86:D90 D93:D97">
-    <cfRule type="expression" dxfId="292" priority="317">
+    <cfRule type="expression" dxfId="242" priority="317">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="318">
+    <cfRule type="expression" dxfId="241" priority="318">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14103,10 +13815,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D6 D9:D13">
-    <cfRule type="expression" dxfId="290" priority="319">
+    <cfRule type="expression" dxfId="240" priority="319">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="320">
+    <cfRule type="expression" dxfId="239" priority="320">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14128,9 +13840,11 @@
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14141,10 +13855,10 @@
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="38" width="9.42578125" customWidth="1"/>
+    <col min="8" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14158,7 +13872,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -14172,7 +13886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>0-4</v>
@@ -14194,7 +13908,7 @@
         <v>Prisoners</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>0-4</v>
@@ -14215,7 +13929,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>5-14</v>
@@ -14236,7 +13950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>15-64</v>
@@ -14257,7 +13971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>65+</v>
@@ -14278,7 +13992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>Prisoners</v>
@@ -14299,7 +14013,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -14370,44 +14084,8 @@
       <c r="Z11" s="1">
         <v>2018</v>
       </c>
-      <c r="AA11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>2021</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>2022</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>2023</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>2025</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>2026</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>2027</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>2028</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>2029</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>0-4</v>
@@ -14450,20 +14128,8 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>0-4</v>
@@ -14506,20 +14172,8 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>0-4</v>
@@ -14562,20 +14216,8 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>IF($E$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>0-4</v>
@@ -14618,20 +14260,8 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>IF($F$5="Y",'Population Definitions'!$A$2,"...")</f>
         <v>0-4</v>
@@ -14674,20 +14304,8 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>5-14</v>
@@ -14730,20 +14348,8 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>5-14</v>
@@ -14786,20 +14392,8 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>5-14</v>
@@ -14842,20 +14436,8 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>IF($E$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>5-14</v>
@@ -14898,20 +14480,8 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>IF($F$6="Y",'Population Definitions'!$A$3,"...")</f>
         <v>5-14</v>
@@ -14954,20 +14524,8 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>15-64</v>
@@ -15010,20 +14568,8 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>15-64</v>
@@ -15066,20 +14612,8 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>15-64</v>
@@ -15122,20 +14656,8 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>IF($E$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>15-64</v>
@@ -15178,20 +14700,8 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>IF($F$7="Y",'Population Definitions'!$A$4,"...")</f>
         <v>15-64</v>
@@ -15234,20 +14744,8 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>IF($B$8="Y",'Population Definitions'!$A$5,"...")</f>
         <v>65+</v>
@@ -15290,20 +14788,8 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>IF($C$8="Y",'Population Definitions'!$A$5,"...")</f>
         <v>65+</v>
@@ -15346,20 +14832,8 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>IF($D$8="Y",'Population Definitions'!$A$5,"...")</f>
         <v>65+</v>
@@ -15402,20 +14876,8 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>IF($E$8="Y",'Population Definitions'!$A$5,"...")</f>
         <v>65+</v>
@@ -15458,20 +14920,8 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>IF($F$8="Y",'Population Definitions'!$A$5,"...")</f>
         <v>65+</v>
@@ -15514,20 +14964,8 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>IF($B$9="Y",'Population Definitions'!$B$6,"...")</f>
         <v>Prisoners</v>
@@ -15570,20 +15008,8 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>IF($C$9="Y",'Population Definitions'!$B$6,"...")</f>
         <v>Prisoners</v>
@@ -15626,20 +15052,8 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>IF($D$9="Y",'Population Definitions'!$B$6,"...")</f>
         <v>Prisoners</v>
@@ -15682,20 +15096,8 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>IF($E$9="Y",'Population Definitions'!$B$6,"...")</f>
         <v>Prisoners</v>
@@ -15738,20 +15140,8 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>IF($F$9="Y",'Population Definitions'!$B$6,"...")</f>
         <v>Prisoners</v>
@@ -15794,503 +15184,291 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="288" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="286" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="284" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="282" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="280" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="278" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="276" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="274" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="272" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="270" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:AL12">
-    <cfRule type="expression" dxfId="268" priority="53">
+  <conditionalFormatting sqref="D12:Z12">
+    <cfRule type="expression" dxfId="218" priority="53">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:AL13">
-    <cfRule type="expression" dxfId="267" priority="56">
+  <conditionalFormatting sqref="D13:Z13">
+    <cfRule type="expression" dxfId="217" priority="56">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:AL14">
-    <cfRule type="expression" dxfId="266" priority="59">
+  <conditionalFormatting sqref="D14:Z14">
+    <cfRule type="expression" dxfId="216" priority="59">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:AL15">
-    <cfRule type="expression" dxfId="265" priority="62">
+  <conditionalFormatting sqref="D15:Z15">
+    <cfRule type="expression" dxfId="215" priority="62">
       <formula>$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:AL16">
-    <cfRule type="expression" dxfId="264" priority="65">
+  <conditionalFormatting sqref="D16:Z16">
+    <cfRule type="expression" dxfId="214" priority="65">
       <formula>$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:AL17">
-    <cfRule type="expression" dxfId="263" priority="68">
+  <conditionalFormatting sqref="D17:Z17">
+    <cfRule type="expression" dxfId="213" priority="68">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:AL18">
-    <cfRule type="expression" dxfId="262" priority="71">
+  <conditionalFormatting sqref="D18:Z18">
+    <cfRule type="expression" dxfId="212" priority="71">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:AL19">
-    <cfRule type="expression" dxfId="261" priority="74">
+  <conditionalFormatting sqref="D19:Z19">
+    <cfRule type="expression" dxfId="211" priority="74">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:AL20">
-    <cfRule type="expression" dxfId="260" priority="77">
+  <conditionalFormatting sqref="D20:Z20">
+    <cfRule type="expression" dxfId="210" priority="77">
       <formula>$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:AL21">
-    <cfRule type="expression" dxfId="259" priority="80">
+  <conditionalFormatting sqref="D21:Z21">
+    <cfRule type="expression" dxfId="209" priority="80">
       <formula>$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AL22">
-    <cfRule type="expression" dxfId="258" priority="83">
+  <conditionalFormatting sqref="D22:Z22">
+    <cfRule type="expression" dxfId="208" priority="83">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:AL23">
-    <cfRule type="expression" dxfId="257" priority="86">
+  <conditionalFormatting sqref="D23:Z23">
+    <cfRule type="expression" dxfId="207" priority="86">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AL24">
-    <cfRule type="expression" dxfId="256" priority="89">
+  <conditionalFormatting sqref="D24:Z24">
+    <cfRule type="expression" dxfId="206" priority="89">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:AL25">
-    <cfRule type="expression" dxfId="255" priority="92">
+  <conditionalFormatting sqref="D25:Z25">
+    <cfRule type="expression" dxfId="205" priority="92">
       <formula>$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:AL26">
-    <cfRule type="expression" dxfId="254" priority="95">
+  <conditionalFormatting sqref="D26:Z26">
+    <cfRule type="expression" dxfId="204" priority="95">
       <formula>$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:AL27">
-    <cfRule type="expression" dxfId="253" priority="98">
+  <conditionalFormatting sqref="D27:Z27">
+    <cfRule type="expression" dxfId="203" priority="98">
       <formula>$B$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:AL28">
-    <cfRule type="expression" dxfId="252" priority="101">
+  <conditionalFormatting sqref="D28:Z28">
+    <cfRule type="expression" dxfId="202" priority="101">
       <formula>$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:AL29">
-    <cfRule type="expression" dxfId="251" priority="104">
+  <conditionalFormatting sqref="D29:Z29">
+    <cfRule type="expression" dxfId="201" priority="104">
       <formula>$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:AL30">
-    <cfRule type="expression" dxfId="250" priority="107">
+  <conditionalFormatting sqref="D30:Z30">
+    <cfRule type="expression" dxfId="200" priority="107">
       <formula>$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:AL31">
-    <cfRule type="expression" dxfId="249" priority="110">
+  <conditionalFormatting sqref="D31:Z31">
+    <cfRule type="expression" dxfId="199" priority="110">
       <formula>$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:AL32">
-    <cfRule type="expression" dxfId="248" priority="113">
+  <conditionalFormatting sqref="D32:Z32">
+    <cfRule type="expression" dxfId="198" priority="113">
       <formula>$B$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:AL33">
-    <cfRule type="expression" dxfId="247" priority="116">
+  <conditionalFormatting sqref="D33:Z33">
+    <cfRule type="expression" dxfId="197" priority="116">
       <formula>$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:AL34">
-    <cfRule type="expression" dxfId="246" priority="119">
+  <conditionalFormatting sqref="D34:Z34">
+    <cfRule type="expression" dxfId="196" priority="119">
       <formula>$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:AL35">
-    <cfRule type="expression" dxfId="245" priority="122">
+  <conditionalFormatting sqref="D35:Z35">
+    <cfRule type="expression" dxfId="195" priority="122">
       <formula>$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:AL36">
-    <cfRule type="expression" dxfId="244" priority="125">
+  <conditionalFormatting sqref="D36:Z36">
+    <cfRule type="expression" dxfId="194" priority="125">
       <formula>$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="243" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="241" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="239" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="237" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="235" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="233" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="231" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="229" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="227" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="225" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="48" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="223" priority="51">
-      <formula>COUNTIF(H12:AL12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="52">
-      <formula>AND(COUNTIF(H12:AL12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="221" priority="54">
-      <formula>COUNTIF(H13:AL13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="55">
-      <formula>AND(COUNTIF(H13:AL13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="219" priority="57">
-      <formula>COUNTIF(H14:AL14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="58">
-      <formula>AND(COUNTIF(H14:AL14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="217" priority="60">
-      <formula>COUNTIF(H15:AL15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="61">
-      <formula>AND(COUNTIF(H15:AL15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="215" priority="63">
-      <formula>COUNTIF(H16:AL16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="64">
-      <formula>AND(COUNTIF(H16:AL16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="213" priority="66">
-      <formula>COUNTIF(H17:AL17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="67">
-      <formula>AND(COUNTIF(H17:AL17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="211" priority="69">
-      <formula>COUNTIF(H18:AL18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="70">
-      <formula>AND(COUNTIF(H18:AL18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="209" priority="72">
-      <formula>COUNTIF(H19:AL19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="73">
-      <formula>AND(COUNTIF(H19:AL19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="207" priority="75">
-      <formula>COUNTIF(H20:AL20,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="76">
-      <formula>AND(COUNTIF(H20:AL20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="205" priority="78">
-      <formula>COUNTIF(H21:AL21,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="79">
-      <formula>AND(COUNTIF(H21:AL21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="203" priority="81">
-      <formula>COUNTIF(H22:AL22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="82">
-      <formula>AND(COUNTIF(H22:AL22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="201" priority="84">
-      <formula>COUNTIF(H23:AL23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="85">
-      <formula>AND(COUNTIF(H23:AL23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="199" priority="87">
-      <formula>COUNTIF(H24:AL24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="88">
-      <formula>AND(COUNTIF(H24:AL24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="197" priority="90">
-      <formula>COUNTIF(H25:AL25,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="91">
-      <formula>AND(COUNTIF(H25:AL25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="195" priority="93">
-      <formula>COUNTIF(H26:AL26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="94">
-      <formula>AND(COUNTIF(H26:AL26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="193" priority="96">
-      <formula>COUNTIF(H27:AL27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="97">
-      <formula>AND(COUNTIF(H27:AL27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="191" priority="99">
-      <formula>COUNTIF(H28:AL28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="100">
-      <formula>AND(COUNTIF(H28:AL28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="189" priority="102">
-      <formula>COUNTIF(H29:AL29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="103">
-      <formula>AND(COUNTIF(H29:AL29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="187" priority="105">
-      <formula>COUNTIF(H30:AL30,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="106">
-      <formula>AND(COUNTIF(H30:AL30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="185" priority="108">
-      <formula>COUNTIF(H31:AL31,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="109">
-      <formula>AND(COUNTIF(H31:AL31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="183" priority="111">
-      <formula>COUNTIF(H32:AL32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="112">
-      <formula>AND(COUNTIF(H32:AL32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="181" priority="114">
-      <formula>COUNTIF(H33:AL33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="115">
-      <formula>AND(COUNTIF(H33:AL33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="179" priority="117">
-      <formula>COUNTIF(H34:AL34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="118">
-      <formula>AND(COUNTIF(H34:AL34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="177" priority="120">
-      <formula>COUNTIF(H35:AL35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="121">
-      <formula>AND(COUNTIF(H35:AL35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="175" priority="123">
-      <formula>COUNTIF(H36:AL36,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="124">
-      <formula>AND(COUNTIF(H36:AL36,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
@@ -16333,155 +15511,19 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="50">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+  <conditionalFormatting sqref="F12:F36">
+    <cfRule type="expression" dxfId="1" priority="387">
+      <formula>COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="388">
+      <formula>AND(COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:F9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D36">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
@@ -21752,10 +20794,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23:D27 D30:D34 D37:D41 D44:D48 D2:D6 D9:D13">
-    <cfRule type="expression" dxfId="1" priority="385">
+    <cfRule type="expression" dxfId="332" priority="385">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="386">
+    <cfRule type="expression" dxfId="331" priority="386">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28518,10 +27560,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100:D104 D107:D111 D114:D118 D121:D125 D128:D132 D135:D139 D142:D146 D16:D20 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D58:D62 D65:D69 D72:D76 D79:D83 D9:D13 D86:D90 D93:D97">
-    <cfRule type="expression" dxfId="380" priority="383">
+    <cfRule type="expression" dxfId="330" priority="383">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="384">
+    <cfRule type="expression" dxfId="329" priority="384">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32763,10 +31805,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100:D104 D107:D111 D114:D118 D16:D20 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D58:D62 D65:D69 D72:D76 D79:D83 D9:D13 D86:D90 D93:D97">
-    <cfRule type="expression" dxfId="378" priority="381">
+    <cfRule type="expression" dxfId="328" priority="381">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="382">
+    <cfRule type="expression" dxfId="327" priority="382">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34322,50 +33364,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="376" priority="1">
+    <cfRule type="expression" dxfId="326" priority="1">
       <formula>COUNTIF(F2:W2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="2">
+    <cfRule type="expression" dxfId="325" priority="2">
       <formula>AND(COUNTIF(F2:W2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="374" priority="3">
+    <cfRule type="expression" dxfId="324" priority="3">
       <formula>COUNTIF(F3:W3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="4">
+    <cfRule type="expression" dxfId="323" priority="4">
       <formula>AND(COUNTIF(F3:W3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="372" priority="5">
+    <cfRule type="expression" dxfId="322" priority="5">
       <formula>COUNTIF(F4:W4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="6">
+    <cfRule type="expression" dxfId="321" priority="6">
       <formula>AND(COUNTIF(F4:W4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="370" priority="7">
+    <cfRule type="expression" dxfId="320" priority="7">
       <formula>COUNTIF(F5:W5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="8">
+    <cfRule type="expression" dxfId="319" priority="8">
       <formula>AND(COUNTIF(F5:W5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="368" priority="9">
+    <cfRule type="expression" dxfId="318" priority="9">
       <formula>COUNTIF(F6:W6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="10">
+    <cfRule type="expression" dxfId="317" priority="10">
       <formula>AND(COUNTIF(F6:W6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20 D23:D27 D30:D34 D37:D41 D9:D13">
-    <cfRule type="expression" dxfId="366" priority="379">
+    <cfRule type="expression" dxfId="316" priority="379">
       <formula>COUNTIF(F9:X9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="380">
+    <cfRule type="expression" dxfId="315" priority="380">
       <formula>AND(COUNTIF(F9:X9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36634,178 +35676,178 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="364" priority="41">
+    <cfRule type="expression" dxfId="314" priority="41">
       <formula>COUNTIF(F37:W37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="42">
+    <cfRule type="expression" dxfId="313" priority="42">
       <formula>AND(COUNTIF(F37:W37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="362" priority="43">
+    <cfRule type="expression" dxfId="312" priority="43">
       <formula>COUNTIF(F38:W38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="44">
+    <cfRule type="expression" dxfId="311" priority="44">
       <formula>AND(COUNTIF(F38:W38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="360" priority="45">
+    <cfRule type="expression" dxfId="310" priority="45">
       <formula>COUNTIF(F39:W39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="46">
+    <cfRule type="expression" dxfId="309" priority="46">
       <formula>AND(COUNTIF(F39:W39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="358" priority="47">
+    <cfRule type="expression" dxfId="308" priority="47">
       <formula>COUNTIF(F40:W40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="48">
+    <cfRule type="expression" dxfId="307" priority="48">
       <formula>AND(COUNTIF(F40:W40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="356" priority="49">
+    <cfRule type="expression" dxfId="306" priority="49">
       <formula>COUNTIF(F41:W41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="50">
+    <cfRule type="expression" dxfId="305" priority="50">
       <formula>AND(COUNTIF(F41:W41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="354" priority="51">
+    <cfRule type="expression" dxfId="304" priority="51">
       <formula>COUNTIF(F44:W44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="52">
+    <cfRule type="expression" dxfId="303" priority="52">
       <formula>AND(COUNTIF(F44:W44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="352" priority="53">
+    <cfRule type="expression" dxfId="302" priority="53">
       <formula>COUNTIF(F45:W45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="54">
+    <cfRule type="expression" dxfId="301" priority="54">
       <formula>AND(COUNTIF(F45:W45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="350" priority="55">
+    <cfRule type="expression" dxfId="300" priority="55">
       <formula>COUNTIF(F46:W46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="56">
+    <cfRule type="expression" dxfId="299" priority="56">
       <formula>AND(COUNTIF(F46:W46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="348" priority="57">
+    <cfRule type="expression" dxfId="298" priority="57">
       <formula>COUNTIF(F47:W47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="58">
+    <cfRule type="expression" dxfId="297" priority="58">
       <formula>AND(COUNTIF(F47:W47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="346" priority="59">
+    <cfRule type="expression" dxfId="296" priority="59">
       <formula>COUNTIF(F48:W48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="60">
+    <cfRule type="expression" dxfId="295" priority="60">
       <formula>AND(COUNTIF(F48:W48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="344" priority="61">
+    <cfRule type="expression" dxfId="294" priority="61">
       <formula>COUNTIF(F51:W51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="62">
+    <cfRule type="expression" dxfId="293" priority="62">
       <formula>AND(COUNTIF(F51:W51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="342" priority="63">
+    <cfRule type="expression" dxfId="292" priority="63">
       <formula>COUNTIF(F52:W52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="64">
+    <cfRule type="expression" dxfId="291" priority="64">
       <formula>AND(COUNTIF(F52:W52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="340" priority="65">
+    <cfRule type="expression" dxfId="290" priority="65">
       <formula>COUNTIF(F53:W53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="66">
+    <cfRule type="expression" dxfId="289" priority="66">
       <formula>AND(COUNTIF(F53:W53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="338" priority="67">
+    <cfRule type="expression" dxfId="288" priority="67">
       <formula>COUNTIF(F54:W54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="68">
+    <cfRule type="expression" dxfId="287" priority="68">
       <formula>AND(COUNTIF(F54:W54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="336" priority="69">
+    <cfRule type="expression" dxfId="286" priority="69">
       <formula>COUNTIF(F55:W55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="70">
+    <cfRule type="expression" dxfId="285" priority="70">
       <formula>AND(COUNTIF(F55:W55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="334" priority="71">
+    <cfRule type="expression" dxfId="284" priority="71">
       <formula>COUNTIF(F58:W58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="72">
+    <cfRule type="expression" dxfId="283" priority="72">
       <formula>AND(COUNTIF(F58:W58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="332" priority="73">
+    <cfRule type="expression" dxfId="282" priority="73">
       <formula>COUNTIF(F59:W59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="74">
+    <cfRule type="expression" dxfId="281" priority="74">
       <formula>AND(COUNTIF(F59:W59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="330" priority="75">
+    <cfRule type="expression" dxfId="280" priority="75">
       <formula>COUNTIF(F60:W60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="76">
+    <cfRule type="expression" dxfId="279" priority="76">
       <formula>AND(COUNTIF(F60:W60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="328" priority="77">
+    <cfRule type="expression" dxfId="278" priority="77">
       <formula>COUNTIF(F61:W61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="78">
+    <cfRule type="expression" dxfId="277" priority="78">
       <formula>AND(COUNTIF(F61:W61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="326" priority="79">
+    <cfRule type="expression" dxfId="276" priority="79">
       <formula>COUNTIF(F62:W62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="80">
+    <cfRule type="expression" dxfId="275" priority="80">
       <formula>AND(COUNTIF(F62:W62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D20 D23:D27 D30:D34 D2:D6 D9:D13">
-    <cfRule type="expression" dxfId="324" priority="327">
+    <cfRule type="expression" dxfId="274" priority="327">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="328">
+    <cfRule type="expression" dxfId="273" priority="328">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F27 F37:F41 F44:F48 F51:F55 F58:F62">
-    <cfRule type="expression" dxfId="322" priority="377">
+    <cfRule type="expression" dxfId="272" priority="377">
       <formula>COUNTIF(H23:X23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="378">
+    <cfRule type="expression" dxfId="271" priority="378">
       <formula>AND(COUNTIF(H23:X23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38921,10 +37963,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16:D20 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D9:D13">
-    <cfRule type="expression" dxfId="320" priority="325">
+    <cfRule type="expression" dxfId="270" priority="325">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="326">
+    <cfRule type="expression" dxfId="269" priority="326">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38945,8 +37987,8 @@
   </sheetPr>
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
@@ -43883,10 +42925,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16:D20 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D58:D62 D65:D69 D72:D76 D79:D83 D9:D13 D93:D95 D98:D100 D103:D105 D108:D110 D113:D115 D118:D120 D123:D125 D128:D130 D133:D135 D86:D90">
-    <cfRule type="expression" dxfId="318" priority="323">
+    <cfRule type="expression" dxfId="268" priority="323">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="324">
+    <cfRule type="expression" dxfId="267" priority="324">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51550,10 +50592,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D100:D104 D107:D111 D114:D118 D121:D125 D128:D132 D135:D139 D142:D146 D149:D153 D156:D160 D163:D167 D170:D174 D177:D181 D184:D188 D191:D195 D16:D20 D198:D202 D205:D209 D23:D27 D30:D34 D37:D41 D44:D48 D51:D55 D2:D6 D58:D62 D65:D69 D72:D76 D79:D83 D9:D13 D86:D90 D93:D97 D212:D214">
-    <cfRule type="expression" dxfId="316" priority="313">
+    <cfRule type="expression" dxfId="266" priority="313">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="314">
+    <cfRule type="expression" dxfId="265" priority="314">
       <formula>AND(COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/atomica_apps/optima_tb_databook.xlsx
+++ b/atomica_apps/optima_tb_databook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Latent treatment" sheetId="5" r:id="rId5"/>
     <sheet name="Initialization estimates" sheetId="6" r:id="rId6"/>
     <sheet name="New infections proportions" sheetId="7" r:id="rId7"/>
-    <sheet name="Key calibration parameters" sheetId="8" r:id="rId8"/>
+    <sheet name="Key calibration estimates" sheetId="8" r:id="rId8"/>
     <sheet name="Optional data" sheetId="9" r:id="rId9"/>
     <sheet name="Infection susceptibility" sheetId="10" r:id="rId10"/>
     <sheet name="Untreated TB progression rates" sheetId="11" r:id="rId11"/>
@@ -2954,18 +2954,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
@@ -5060,6 +5048,18 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FF98E0FA"/>
         </patternFill>
@@ -6975,7 +6975,7 @@
   <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8839,7 +8839,7 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13305,8 +13305,8 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13399,9 +13399,11 @@
       <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0.111</v>
+      </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -13434,9 +13436,11 @@
       <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0.111</v>
+      </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -13469,9 +13473,11 @@
       <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.111</v>
+      </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -13504,9 +13510,11 @@
       <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0.111</v>
+      </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
@@ -13539,9 +13547,11 @@
       <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0.111</v>
+      </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
@@ -13648,7 +13658,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>18</v>
@@ -13683,7 +13693,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
@@ -13753,7 +13763,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
@@ -13814,7 +13824,7 @@
       <c r="X13" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6 D9:D13">
+  <conditionalFormatting sqref="D9:D13 D2:D6">
     <cfRule type="expression" dxfId="240" priority="319">
       <formula>COUNTIF(F2:X2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
@@ -13842,7 +13852,7 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -15512,10 +15522,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F36">
-    <cfRule type="expression" dxfId="1" priority="387">
+    <cfRule type="expression" dxfId="163" priority="387">
       <formula>COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="388">
+    <cfRule type="expression" dxfId="162" priority="388">
       <formula>AND(COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18071,694 +18081,694 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="163" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="154" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="155" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="161" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="159" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="170" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="171" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="157" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="178" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="179" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="155" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="47" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="48" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="151" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="56" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="64" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="147" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="145" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="164" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="165" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="143" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="172" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="173" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="141" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="180" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="181" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="137" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="49" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="50" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="135" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="58" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="66" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:Z12">
-    <cfRule type="expression" dxfId="131" priority="73">
+    <cfRule type="expression" dxfId="129" priority="73">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:G13 S13:Z13">
-    <cfRule type="expression" dxfId="130" priority="76">
+    <cfRule type="expression" dxfId="128" priority="76">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:Z14">
-    <cfRule type="expression" dxfId="129" priority="79">
+    <cfRule type="expression" dxfId="127" priority="79">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:Z15">
-    <cfRule type="expression" dxfId="128" priority="82">
+    <cfRule type="expression" dxfId="126" priority="82">
       <formula>$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:Z16">
-    <cfRule type="expression" dxfId="127" priority="85">
+    <cfRule type="expression" dxfId="125" priority="85">
       <formula>$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:Z17">
-    <cfRule type="expression" dxfId="126" priority="88">
+    <cfRule type="expression" dxfId="124" priority="88">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:Z18">
-    <cfRule type="expression" dxfId="125" priority="91">
+    <cfRule type="expression" dxfId="123" priority="91">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:G19 X19:Z19">
-    <cfRule type="expression" dxfId="124" priority="94">
+    <cfRule type="expression" dxfId="122" priority="94">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:Z20">
-    <cfRule type="expression" dxfId="123" priority="97">
+    <cfRule type="expression" dxfId="121" priority="97">
       <formula>$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:Z21">
-    <cfRule type="expression" dxfId="122" priority="100">
+    <cfRule type="expression" dxfId="120" priority="100">
       <formula>$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:Z22">
-    <cfRule type="expression" dxfId="121" priority="103">
+    <cfRule type="expression" dxfId="119" priority="103">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:Z23">
-    <cfRule type="expression" dxfId="120" priority="106">
+    <cfRule type="expression" dxfId="118" priority="106">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:Z24">
-    <cfRule type="expression" dxfId="119" priority="109">
+    <cfRule type="expression" dxfId="117" priority="109">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:G25 X25:Z25">
-    <cfRule type="expression" dxfId="118" priority="112">
+    <cfRule type="expression" dxfId="116" priority="112">
       <formula>$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:Z26">
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="115" priority="115">
       <formula>$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:Z27">
-    <cfRule type="expression" dxfId="116" priority="118">
+    <cfRule type="expression" dxfId="114" priority="118">
       <formula>$B$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:Z28">
-    <cfRule type="expression" dxfId="115" priority="121">
+    <cfRule type="expression" dxfId="113" priority="121">
       <formula>$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:Z29">
-    <cfRule type="expression" dxfId="114" priority="124">
+    <cfRule type="expression" dxfId="112" priority="124">
       <formula>$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:Z30">
-    <cfRule type="expression" dxfId="113" priority="127">
+    <cfRule type="expression" dxfId="111" priority="127">
       <formula>$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:Z31">
-    <cfRule type="expression" dxfId="112" priority="130">
+    <cfRule type="expression" dxfId="110" priority="130">
       <formula>$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:Z32">
-    <cfRule type="expression" dxfId="111" priority="133">
+    <cfRule type="expression" dxfId="109" priority="133">
       <formula>$B$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:Z33">
-    <cfRule type="expression" dxfId="110" priority="136">
+    <cfRule type="expression" dxfId="108" priority="136">
       <formula>$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:Z34">
-    <cfRule type="expression" dxfId="109" priority="139">
+    <cfRule type="expression" dxfId="107" priority="139">
       <formula>$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:Z35">
-    <cfRule type="expression" dxfId="108" priority="142">
+    <cfRule type="expression" dxfId="106" priority="142">
       <formula>$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:Z36">
-    <cfRule type="expression" dxfId="107" priority="145">
+    <cfRule type="expression" dxfId="105" priority="145">
       <formula>$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="106" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="148" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="149" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="104" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="156" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="157" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="102" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="174" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="175" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="100" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="183" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:Z49">
-    <cfRule type="expression" dxfId="98" priority="188">
+    <cfRule type="expression" dxfId="96" priority="188">
       <formula>$B$42&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="97" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:Z50">
-    <cfRule type="expression" dxfId="95" priority="191">
+    <cfRule type="expression" dxfId="93" priority="191">
       <formula>$C$42&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:Z51">
-    <cfRule type="expression" dxfId="94" priority="194">
+    <cfRule type="expression" dxfId="92" priority="194">
       <formula>$D$42&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:Z52">
-    <cfRule type="expression" dxfId="93" priority="197">
+    <cfRule type="expression" dxfId="91" priority="197">
       <formula>$E$42&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:Z53">
-    <cfRule type="expression" dxfId="92" priority="200">
+    <cfRule type="expression" dxfId="90" priority="200">
       <formula>$F$42&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:Z54">
-    <cfRule type="expression" dxfId="91" priority="203">
+    <cfRule type="expression" dxfId="89" priority="203">
       <formula>$B$43&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:Z55">
-    <cfRule type="expression" dxfId="90" priority="206">
+    <cfRule type="expression" dxfId="88" priority="206">
       <formula>$C$43&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:Z56">
-    <cfRule type="expression" dxfId="89" priority="209">
+    <cfRule type="expression" dxfId="87" priority="209">
       <formula>$D$43&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:Z57">
-    <cfRule type="expression" dxfId="88" priority="212">
+    <cfRule type="expression" dxfId="86" priority="212">
       <formula>$E$43&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:Z58">
-    <cfRule type="expression" dxfId="87" priority="215">
+    <cfRule type="expression" dxfId="85" priority="215">
       <formula>$F$43&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:Z59">
-    <cfRule type="expression" dxfId="86" priority="218">
+    <cfRule type="expression" dxfId="84" priority="218">
       <formula>$B$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:Z60">
-    <cfRule type="expression" dxfId="83" priority="221">
+    <cfRule type="expression" dxfId="81" priority="221">
       <formula>$C$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:Z61">
-    <cfRule type="expression" dxfId="82" priority="224">
+    <cfRule type="expression" dxfId="80" priority="224">
       <formula>$D$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:Z62">
-    <cfRule type="expression" dxfId="81" priority="227">
+    <cfRule type="expression" dxfId="79" priority="227">
       <formula>$E$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:E63 G63:Z63">
-    <cfRule type="expression" dxfId="80" priority="230">
+    <cfRule type="expression" dxfId="78" priority="230">
       <formula>$F$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:E64 G64:Z64">
-    <cfRule type="expression" dxfId="79" priority="233">
+    <cfRule type="expression" dxfId="77" priority="233">
       <formula>$B$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:E65 G65:Z65">
-    <cfRule type="expression" dxfId="78" priority="236">
+    <cfRule type="expression" dxfId="76" priority="236">
       <formula>$C$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:E66 G66:Z66">
-    <cfRule type="expression" dxfId="77" priority="239">
+    <cfRule type="expression" dxfId="75" priority="239">
       <formula>$D$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:E67 G67:Z67">
-    <cfRule type="expression" dxfId="76" priority="242">
+    <cfRule type="expression" dxfId="74" priority="242">
       <formula>$E$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:E68 G68:Z68">
-    <cfRule type="expression" dxfId="75" priority="245">
+    <cfRule type="expression" dxfId="73" priority="245">
       <formula>$F$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69 G69:Z69">
-    <cfRule type="expression" dxfId="74" priority="248">
+    <cfRule type="expression" dxfId="72" priority="248">
       <formula>$B$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:E70 G70:Z70">
-    <cfRule type="expression" dxfId="73" priority="251">
+    <cfRule type="expression" dxfId="71" priority="251">
       <formula>$C$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:E71 G71:Z71">
-    <cfRule type="expression" dxfId="72" priority="254">
+    <cfRule type="expression" dxfId="70" priority="254">
       <formula>$D$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:Z72">
-    <cfRule type="expression" dxfId="71" priority="257">
+    <cfRule type="expression" dxfId="69" priority="257">
       <formula>$E$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:Z73">
-    <cfRule type="expression" dxfId="70" priority="260">
+    <cfRule type="expression" dxfId="68" priority="260">
       <formula>$F$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="65" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="150" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="151" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="63" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="158" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="159" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="61" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="166" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="167" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="59" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="184" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="185" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="70" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="49" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="152" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="153" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="47" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="160" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="161" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="45" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="168" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="169" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="43" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="176" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="177" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="53" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="54" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:R13">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:W19">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:W25">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>COUNTIF(H63:Y63,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COUNTIF(H63:Y63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F63)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>$F$44&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>COUNTIF(H64:Y64,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>AND(COUNTIF(H64:Y64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F64)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>$B$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>COUNTIF(H65:Y65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>AND(COUNTIF(H65:Y65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F65)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$C$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>COUNTIF(H66:Y66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>AND(COUNTIF(H66:Y66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F66)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>$D$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>COUNTIF(H67:Y67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>AND(COUNTIF(H67:Y67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F67)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$E$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>COUNTIF(H68:Y68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>AND(COUNTIF(H68:Y68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F68)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$F$45&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>COUNTIF(H69:Y69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>AND(COUNTIF(H69:Y69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F69)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>$B$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>COUNTIF(H70:Y70,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="6" priority="23">
       <formula>AND(COUNTIF(H70:Y70,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F70)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>$C$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="6" priority="25">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>COUNTIF(H71:Y71,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="26">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>AND(COUNTIF(H71:Y71,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F71)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$D$46&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F36 F49:F62 F72:F73">
-    <cfRule type="expression" dxfId="3" priority="321">
+    <cfRule type="expression" dxfId="1" priority="321">
       <formula>COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="322">
+    <cfRule type="expression" dxfId="0" priority="322">
       <formula>AND(COUNTIF(H12:Z12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(F12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18826,7 +18836,7 @@
   </sheetPr>
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -37987,11 +37997,11 @@
   </sheetPr>
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomRight" activeCell="Q136" sqref="Q136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42952,8 +42962,8 @@
   </sheetPr>
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50608,6 +50618,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>